--- a/medicine/Psychotrope/Restaurant_Laffite/Restaurant_Laffite.xlsx
+++ b/medicine/Psychotrope/Restaurant_Laffite/Restaurant_Laffite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le restaurant Laffite était  un café-restaurant établi à Paris au XIXe siècle.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le restaurant de Félix Laffite se situait rue Taranne, no 2, à l'angle de la rue Saint-Benoît. Les amateurs allaient y manger des gibelottes et admirer des panneaux peints par trois artistes, Gérôme, Hamon[1] et Picou, que Laffite avait nourris lorsqu’ils étaient pauvres et que, une fois devenus célèbres, ils illustrèrent. Y venaient également Dantan, Harpignies, Decaen, Cormon, Feyen-Perrin et Poirson.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le restaurant de Félix Laffite se situait rue Taranne, no 2, à l'angle de la rue Saint-Benoît. Les amateurs allaient y manger des gibelottes et admirer des panneaux peints par trois artistes, Gérôme, Hamon et Picou, que Laffite avait nourris lorsqu’ils étaient pauvres et que, une fois devenus célèbres, ils illustrèrent. Y venaient également Dantan, Harpignies, Decaen, Cormon, Feyen-Perrin et Poirson.
 « Le père Laffitte [sic] était le tenancier d'un restaurant fameux sous le second Empire ; l'établissement, situé près de Saint-Germain des Prés, occupait à peu près l'emplacement de la statue de Diderot, sur le boulevard Saint-Germain, près de la rue de Rennes ; il a naturellement disparu lors des travaux d'élargissement du boulevard Saint-Germain, à cet endroit. C'était un rendez-vous de rapins, de peintres, d'artistes et le père Laffitte faisait volontiers, pendant un certain temps, crédit à ceux de ses clients, qui se trouvaient momentanément dans la gêne. »
 — Eugène Hoffmann, Jean-Louis Hamon, peintre, Paris, chez l'auteur, 1903, p. 49, note 1.
 Le restaurant déménagea sur l'autre côté de la rue, sur le nouveau boulevard Saint-Germain au no 153.
